--- a/Code/Results/Cases/Case_0_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9987608207858548</v>
+        <v>1.035383042756525</v>
       </c>
       <c r="D2">
-        <v>1.007150189658496</v>
+        <v>1.038027399199306</v>
       </c>
       <c r="E2">
-        <v>1.011529271131002</v>
+        <v>1.043239394799286</v>
       </c>
       <c r="F2">
-        <v>1.013870172515662</v>
+        <v>1.051323590264847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042692414559835</v>
+        <v>1.03248832586516</v>
       </c>
       <c r="J2">
-        <v>1.020978658767092</v>
+        <v>1.040497118508461</v>
       </c>
       <c r="K2">
-        <v>1.018510801717608</v>
+        <v>1.040816602684436</v>
       </c>
       <c r="L2">
-        <v>1.022830288074119</v>
+        <v>1.046013820906619</v>
       </c>
       <c r="M2">
-        <v>1.025139597459101</v>
+        <v>1.05407540986662</v>
       </c>
       <c r="N2">
-        <v>1.022428565570429</v>
+        <v>1.041974743763431</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00383124268466</v>
+        <v>1.03644764337012</v>
       </c>
       <c r="D3">
-        <v>1.011572878045573</v>
+        <v>1.039006121426829</v>
       </c>
       <c r="E3">
-        <v>1.015936063346419</v>
+        <v>1.04422181502091</v>
       </c>
       <c r="F3">
-        <v>1.018964172263149</v>
+        <v>1.052474633873844</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043667779319954</v>
+        <v>1.032619345340919</v>
       </c>
       <c r="J3">
-        <v>1.024218006271963</v>
+        <v>1.041204663579154</v>
       </c>
       <c r="K3">
-        <v>1.022059792599961</v>
+        <v>1.041604807522457</v>
       </c>
       <c r="L3">
-        <v>1.026369020243969</v>
+        <v>1.046806787332633</v>
       </c>
       <c r="M3">
-        <v>1.029360019544537</v>
+        <v>1.055038206446775</v>
       </c>
       <c r="N3">
-        <v>1.025672513320317</v>
+        <v>1.04268329362928</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007039057615769</v>
+        <v>1.037136584836365</v>
       </c>
       <c r="D4">
-        <v>1.014376048544852</v>
+        <v>1.039639772019352</v>
       </c>
       <c r="E4">
-        <v>1.018730308553605</v>
+        <v>1.044857983438921</v>
       </c>
       <c r="F4">
-        <v>1.022194992284202</v>
+        <v>1.053220228044359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044272433536751</v>
+        <v>1.032702568322428</v>
       </c>
       <c r="J4">
-        <v>1.026264401548668</v>
+        <v>1.041662004229239</v>
       </c>
       <c r="K4">
-        <v>1.024304009182267</v>
+        <v>1.04211456682116</v>
       </c>
       <c r="L4">
-        <v>1.028607811249048</v>
+        <v>1.047319751683657</v>
       </c>
       <c r="M4">
-        <v>1.032032724615414</v>
+        <v>1.055661410622551</v>
       </c>
       <c r="N4">
-        <v>1.02772181471304</v>
+        <v>1.043141283755546</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00837081525692</v>
+        <v>1.037426233672469</v>
       </c>
       <c r="D5">
-        <v>1.01554100237339</v>
+        <v>1.039906242637744</v>
       </c>
       <c r="E5">
-        <v>1.019891830267605</v>
+        <v>1.045125542503994</v>
       </c>
       <c r="F5">
-        <v>1.023538213686553</v>
+        <v>1.053533865390889</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044520435126643</v>
+        <v>1.032737182612707</v>
       </c>
       <c r="J5">
-        <v>1.027113225536803</v>
+        <v>1.041854153111253</v>
       </c>
       <c r="K5">
-        <v>1.025235420668705</v>
+        <v>1.042328806666146</v>
       </c>
       <c r="L5">
-        <v>1.029537228780789</v>
+        <v>1.047535368662868</v>
       </c>
       <c r="M5">
-        <v>1.033142924117405</v>
+        <v>1.055923455913031</v>
       </c>
       <c r="N5">
-        <v>1.028571844128599</v>
+        <v>1.043333705511013</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008593456933817</v>
+        <v>1.037474868038942</v>
       </c>
       <c r="D6">
-        <v>1.015735826557745</v>
+        <v>1.039950989138061</v>
       </c>
       <c r="E6">
-        <v>1.020086096797707</v>
+        <v>1.045170473516724</v>
       </c>
       <c r="F6">
-        <v>1.023762883551739</v>
+        <v>1.053586537595899</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044561716391131</v>
+        <v>1.032742972643478</v>
       </c>
       <c r="J6">
-        <v>1.027255085165958</v>
+        <v>1.041886408879203</v>
       </c>
       <c r="K6">
-        <v>1.025391114168372</v>
+        <v>1.042364774779145</v>
       </c>
       <c r="L6">
-        <v>1.029692604222527</v>
+        <v>1.047571569747551</v>
       </c>
       <c r="M6">
-        <v>1.033328560114656</v>
+        <v>1.055967457413976</v>
       </c>
       <c r="N6">
-        <v>1.028713905214699</v>
+        <v>1.043366007085853</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007056917785266</v>
+        <v>1.037140455067918</v>
       </c>
       <c r="D7">
-        <v>1.014391667074874</v>
+        <v>1.039643332283506</v>
       </c>
       <c r="E7">
-        <v>1.018745879973064</v>
+        <v>1.044861558129216</v>
       </c>
       <c r="F7">
-        <v>1.022212998669487</v>
+        <v>1.05322441813716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044275771505436</v>
+        <v>1.032703032304896</v>
       </c>
       <c r="J7">
-        <v>1.026275788157255</v>
+        <v>1.041664572192519</v>
       </c>
       <c r="K7">
-        <v>1.024316501554502</v>
+        <v>1.042117429752187</v>
       </c>
       <c r="L7">
-        <v>1.028620275854647</v>
+        <v>1.047322632899139</v>
       </c>
       <c r="M7">
-        <v>1.032047611156411</v>
+        <v>1.055664911887229</v>
       </c>
       <c r="N7">
-        <v>1.027733217491916</v>
+        <v>1.043143855365628</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000489954490272</v>
+        <v>1.035742814384576</v>
       </c>
       <c r="D8">
-        <v>1.008657321505337</v>
+        <v>1.03835808990527</v>
       </c>
       <c r="E8">
-        <v>1.013030745537302</v>
+        <v>1.043571309402474</v>
       </c>
       <c r="F8">
-        <v>1.015605630878052</v>
+        <v>1.051712426827406</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043027613279528</v>
+        <v>1.032532926388134</v>
       </c>
       <c r="J8">
-        <v>1.022083953750299</v>
+        <v>1.040736337655211</v>
       </c>
       <c r="K8">
-        <v>1.019721287071289</v>
+        <v>1.041083034282093</v>
       </c>
       <c r="L8">
-        <v>1.024037053311025</v>
+        <v>1.046281836061501</v>
       </c>
       <c r="M8">
-        <v>1.026578283084866</v>
+        <v>1.054400747841787</v>
       </c>
       <c r="N8">
-        <v>1.023535430199292</v>
+        <v>1.042214302628808</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9883252600490694</v>
+        <v>1.033280547668975</v>
       </c>
       <c r="D9">
-        <v>0.9980783923178479</v>
+        <v>1.03609603753323</v>
       </c>
       <c r="E9">
-        <v>1.002496366129996</v>
+        <v>1.041301390920452</v>
       </c>
       <c r="F9">
-        <v>1.003432154226894</v>
+        <v>1.049054172190726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04061860362328</v>
+        <v>1.032221278319526</v>
       </c>
       <c r="J9">
-        <v>1.014297128053963</v>
+        <v>1.039096939226941</v>
       </c>
       <c r="K9">
-        <v>1.011202723393053</v>
+        <v>1.039258302055975</v>
       </c>
       <c r="L9">
-        <v>1.015549070961831</v>
+        <v>1.044446771311925</v>
       </c>
       <c r="M9">
-        <v>1.016469791476901</v>
+        <v>1.05217474547819</v>
       </c>
       <c r="N9">
-        <v>1.015737546317306</v>
+        <v>1.040572576066728</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9797669979747451</v>
+        <v>1.031639393141106</v>
       </c>
       <c r="D10">
-        <v>0.9906686925644076</v>
+        <v>1.03458984025308</v>
       </c>
       <c r="E10">
-        <v>0.9951239838454018</v>
+        <v>1.039790590211283</v>
       </c>
       <c r="F10">
-        <v>0.9949147337071808</v>
+        <v>1.047286080647826</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038861345622485</v>
+        <v>1.032005528532655</v>
       </c>
       <c r="J10">
-        <v>1.008807022365787</v>
+        <v>1.038001509158192</v>
       </c>
       <c r="K10">
-        <v>1.005208495625136</v>
+        <v>1.038040484739569</v>
       </c>
       <c r="L10">
-        <v>1.009581837917254</v>
+        <v>1.04322269989884</v>
       </c>
       <c r="M10">
-        <v>1.009376415261683</v>
+        <v>1.050691834158889</v>
       </c>
       <c r="N10">
-        <v>1.010239644049329</v>
+        <v>1.039475590361634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9759425270673456</v>
+        <v>1.030928835114776</v>
       </c>
       <c r="D11">
-        <v>0.9873661437324881</v>
+        <v>1.033938078659503</v>
       </c>
       <c r="E11">
-        <v>0.99183950797714</v>
+        <v>1.039136986839061</v>
       </c>
       <c r="F11">
-        <v>0.9911202239272444</v>
+        <v>1.046521443543061</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038062012872655</v>
+        <v>1.031910215866671</v>
       </c>
       <c r="J11">
-        <v>1.006351540053571</v>
+        <v>1.037526584878365</v>
       </c>
       <c r="K11">
-        <v>1.002530314844348</v>
+        <v>1.037512842969327</v>
       </c>
       <c r="L11">
-        <v>1.006916977741112</v>
+        <v>1.042692499887098</v>
       </c>
       <c r="M11">
-        <v>1.0062115654536</v>
+        <v>1.050049975640871</v>
       </c>
       <c r="N11">
-        <v>1.007780674670583</v>
+        <v>1.038999991634856</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9745029699759435</v>
+        <v>1.030664912644016</v>
       </c>
       <c r="D12">
-        <v>0.9861244199282561</v>
+        <v>1.033696050362646</v>
       </c>
       <c r="E12">
-        <v>0.9906047950767037</v>
+        <v>1.038894297160611</v>
       </c>
       <c r="F12">
-        <v>0.9896937549453547</v>
+        <v>1.046237567018209</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037759093842086</v>
+        <v>1.031874528516439</v>
       </c>
       <c r="J12">
-        <v>1.005427029583015</v>
+        <v>1.037350087363614</v>
       </c>
       <c r="K12">
-        <v>1.00152237134448</v>
+        <v>1.037316805473466</v>
       </c>
       <c r="L12">
-        <v>1.005914233420734</v>
+        <v>1.042495534610114</v>
       </c>
       <c r="M12">
-        <v>1.005021106323417</v>
+        <v>1.049811598529798</v>
       </c>
       <c r="N12">
-        <v>1.006854851289116</v>
+        <v>1.038823243473389</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9748126381335487</v>
+        <v>1.030721524446586</v>
       </c>
       <c r="D13">
-        <v>0.9863914679239658</v>
+        <v>1.033747963311717</v>
       </c>
       <c r="E13">
-        <v>0.9908703255590898</v>
+        <v>1.038946350949854</v>
       </c>
       <c r="F13">
-        <v>0.9900005250279341</v>
+        <v>1.046298452995311</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037824347056775</v>
+        <v>1.031882196421686</v>
       </c>
       <c r="J13">
-        <v>1.005625914484516</v>
+        <v>1.037387950728919</v>
       </c>
       <c r="K13">
-        <v>1.001739186024964</v>
+        <v>1.03735885834623</v>
       </c>
       <c r="L13">
-        <v>1.006129921381417</v>
+        <v>1.042537785479278</v>
       </c>
       <c r="M13">
-        <v>1.005277152447817</v>
+        <v>1.04986272952425</v>
       </c>
       <c r="N13">
-        <v>1.007054018629988</v>
+        <v>1.038861160609015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9758239269515827</v>
+        <v>1.030907018991412</v>
       </c>
       <c r="D14">
-        <v>0.9872638139524235</v>
+        <v>1.0339180711988</v>
       </c>
       <c r="E14">
-        <v>0.9917377515830605</v>
+        <v>1.039116924244692</v>
       </c>
       <c r="F14">
-        <v>0.9910026650055986</v>
+        <v>1.046497975289933</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038037097562895</v>
+        <v>1.031907271731124</v>
       </c>
       <c r="J14">
-        <v>1.006275377538856</v>
+        <v>1.037511997364183</v>
       </c>
       <c r="K14">
-        <v>1.002447270577086</v>
+        <v>1.03749663942457</v>
       </c>
       <c r="L14">
-        <v>1.006834358075114</v>
+        <v>1.042676219193674</v>
       </c>
       <c r="M14">
-        <v>1.006113470793444</v>
+        <v>1.050030270545689</v>
       </c>
       <c r="N14">
-        <v>1.00770440399636</v>
+        <v>1.038985383404729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9764444646379915</v>
+        <v>1.031021309667921</v>
       </c>
       <c r="D15">
-        <v>0.9877992788553254</v>
+        <v>1.034022888895907</v>
       </c>
       <c r="E15">
-        <v>0.9922702248920039</v>
+        <v>1.039222031706869</v>
       </c>
       <c r="F15">
-        <v>0.9916178290377151</v>
+        <v>1.046620926601363</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038167376179779</v>
+        <v>1.031922683832635</v>
       </c>
       <c r="J15">
-        <v>1.006673864072621</v>
+        <v>1.037588414732538</v>
       </c>
       <c r="K15">
-        <v>1.002881779713356</v>
+        <v>1.037581524555374</v>
       </c>
       <c r="L15">
-        <v>1.007266653141643</v>
+        <v>1.04276150941039</v>
       </c>
       <c r="M15">
-        <v>1.006626753603279</v>
+        <v>1.050133503093442</v>
       </c>
       <c r="N15">
-        <v>1.008103456426711</v>
+        <v>1.039061909294514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9800182191583819</v>
+        <v>1.031686552025853</v>
       </c>
       <c r="D16">
-        <v>0.9908858163636394</v>
+        <v>1.034633104629811</v>
       </c>
       <c r="E16">
-        <v>0.9953399493819246</v>
+        <v>1.039833980010957</v>
       </c>
       <c r="F16">
-        <v>0.9951642346570038</v>
+        <v>1.047336847263784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038913565198227</v>
+        <v>1.032011814284548</v>
       </c>
       <c r="J16">
-        <v>1.008968279465064</v>
+        <v>1.038033015767233</v>
       </c>
       <c r="K16">
-        <v>1.005384435362061</v>
+        <v>1.038075495873081</v>
       </c>
       <c r="L16">
-        <v>1.009756928500683</v>
+        <v>1.043257883967121</v>
       </c>
       <c r="M16">
-        <v>1.009584416432747</v>
+        <v>1.05073443749121</v>
       </c>
       <c r="N16">
-        <v>1.010401130152184</v>
+        <v>1.039507141713674</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.982227384615306</v>
+        <v>1.032103860091134</v>
       </c>
       <c r="D17">
-        <v>0.9927961320090292</v>
+        <v>1.035015992512892</v>
       </c>
       <c r="E17">
-        <v>0.997240238071516</v>
+        <v>1.040217995239114</v>
       </c>
       <c r="F17">
-        <v>0.9973596090916607</v>
+        <v>1.047786181764753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039371179535539</v>
+        <v>1.032067217177574</v>
       </c>
       <c r="J17">
-        <v>1.010386096799575</v>
+        <v>1.038311742747528</v>
       </c>
       <c r="K17">
-        <v>1.006931661227701</v>
+        <v>1.038385265705957</v>
       </c>
       <c r="L17">
-        <v>1.011296829562123</v>
+        <v>1.043569201368033</v>
       </c>
       <c r="M17">
-        <v>1.011414092853835</v>
+        <v>1.0511114551107</v>
       </c>
       <c r="N17">
-        <v>1.011820960949936</v>
+        <v>1.039786264518251</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.983504584203592</v>
+        <v>1.032347275875067</v>
       </c>
       <c r="D18">
-        <v>0.9939013700408305</v>
+        <v>1.035239366189139</v>
       </c>
       <c r="E18">
-        <v>0.9983398115080098</v>
+        <v>1.040442041099713</v>
       </c>
       <c r="F18">
-        <v>0.9986299407574389</v>
+        <v>1.048048363444043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039634407505916</v>
+        <v>1.032099350223401</v>
       </c>
       <c r="J18">
-        <v>1.011205586443064</v>
+        <v>1.03847426198865</v>
       </c>
       <c r="K18">
-        <v>1.007826210745328</v>
+        <v>1.038565918442053</v>
       </c>
       <c r="L18">
-        <v>1.012187263634064</v>
+        <v>1.043750771233226</v>
       </c>
       <c r="M18">
-        <v>1.012472365188981</v>
+        <v>1.051331387419163</v>
       </c>
       <c r="N18">
-        <v>1.012641614362715</v>
+        <v>1.039949014555337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9839381811358799</v>
+        <v>1.032430275578162</v>
       </c>
       <c r="D19">
-        <v>0.994276723622602</v>
+        <v>1.035315537901779</v>
       </c>
       <c r="E19">
-        <v>0.9987132645173991</v>
+        <v>1.040518444491074</v>
       </c>
       <c r="F19">
-        <v>0.9990613921016802</v>
+        <v>1.048137776311946</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039723542339312</v>
+        <v>1.032110275796042</v>
       </c>
       <c r="J19">
-        <v>1.011483759051662</v>
+        <v>1.03852966709778</v>
       </c>
       <c r="K19">
-        <v>1.008129906729443</v>
+        <v>1.038627511136443</v>
       </c>
       <c r="L19">
-        <v>1.012489582807972</v>
+        <v>1.043812679098804</v>
       </c>
       <c r="M19">
-        <v>1.012831716292548</v>
+        <v>1.051406382779766</v>
       </c>
       <c r="N19">
-        <v>1.012920182008324</v>
+        <v>1.040004498346077</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9819915460309793</v>
+        <v>1.032059086159413</v>
       </c>
       <c r="D20">
-        <v>0.9925921119506299</v>
+        <v>1.034974907957479</v>
       </c>
       <c r="E20">
-        <v>0.9970372747122138</v>
+        <v>1.040176788217929</v>
       </c>
       <c r="F20">
-        <v>0.9971251277065026</v>
+        <v>1.047737962862395</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03932246525508</v>
+        <v>1.032061291849301</v>
       </c>
       <c r="J20">
-        <v>1.010234758849607</v>
+        <v>1.038281843926644</v>
       </c>
       <c r="K20">
-        <v>1.006766482960798</v>
+        <v>1.038352033516365</v>
       </c>
       <c r="L20">
-        <v>1.011132420896633</v>
+        <v>1.043535801643821</v>
       </c>
       <c r="M20">
-        <v>1.011218717346901</v>
+        <v>1.051071002174466</v>
       </c>
       <c r="N20">
-        <v>1.01166940808272</v>
+        <v>1.039756323237612</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9755266611860997</v>
+        <v>1.030852395187768</v>
       </c>
       <c r="D21">
-        <v>0.9870073515042839</v>
+        <v>1.033867976871269</v>
       </c>
       <c r="E21">
-        <v>0.9914827296460071</v>
+        <v>1.03906669223876</v>
       </c>
       <c r="F21">
-        <v>0.9907080382805065</v>
+        <v>1.046439216980905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037974615789279</v>
+        <v>1.031899895515122</v>
       </c>
       <c r="J21">
-        <v>1.006084475878129</v>
+        <v>1.037475471192069</v>
       </c>
       <c r="K21">
-        <v>1.002239126449576</v>
+        <v>1.037456067651554</v>
       </c>
       <c r="L21">
-        <v>1.006627281160926</v>
+        <v>1.042635454615863</v>
       </c>
       <c r="M21">
-        <v>1.005867614304521</v>
+        <v>1.049980932850387</v>
       </c>
       <c r="N21">
-        <v>1.007513231233379</v>
+        <v>1.038948805361262</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9713514891311943</v>
+        <v>1.030093760705561</v>
       </c>
       <c r="D22">
-        <v>0.9834086621677742</v>
+        <v>1.033172381364427</v>
       </c>
       <c r="E22">
-        <v>0.9879047666858544</v>
+        <v>1.038369238372976</v>
       </c>
       <c r="F22">
-        <v>0.9865743182455839</v>
+        <v>1.045623475434673</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037092257727129</v>
+        <v>1.031796776302293</v>
       </c>
       <c r="J22">
-        <v>1.003402703915173</v>
+        <v>1.036967954893066</v>
       </c>
       <c r="K22">
-        <v>0.9993161209194966</v>
+        <v>1.036892461536976</v>
       </c>
       <c r="L22">
-        <v>1.003719701732033</v>
+        <v>1.04206922383575</v>
       </c>
       <c r="M22">
-        <v>1.002416516208952</v>
+        <v>1.049295781187078</v>
       </c>
       <c r="N22">
-        <v>1.004827650846631</v>
+        <v>1.038440568330901</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9735757040380402</v>
+        <v>1.030495921677437</v>
       </c>
       <c r="D23">
-        <v>0.9853249834170141</v>
+        <v>1.033541094026458</v>
       </c>
       <c r="E23">
-        <v>0.9898099329548443</v>
+        <v>1.038738923728054</v>
       </c>
       <c r="F23">
-        <v>0.9887754364550772</v>
+        <v>1.046055836714901</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037563406250239</v>
+        <v>1.031851597410051</v>
       </c>
       <c r="J23">
-        <v>1.004831459966041</v>
+        <v>1.037237047954488</v>
       </c>
       <c r="K23">
-        <v>1.000873170894051</v>
+        <v>1.037191266023562</v>
       </c>
       <c r="L23">
-        <v>1.005268433659914</v>
+        <v>1.042369407404975</v>
       </c>
       <c r="M23">
-        <v>1.004254529352309</v>
+        <v>1.049658972405424</v>
       </c>
       <c r="N23">
-        <v>1.006258435894972</v>
+        <v>1.038710043535336</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9820981463856974</v>
+        <v>1.032079317549858</v>
       </c>
       <c r="D24">
-        <v>0.9926843276336812</v>
+        <v>1.034993472170786</v>
       </c>
       <c r="E24">
-        <v>0.9971290123507062</v>
+        <v>1.040195407723063</v>
       </c>
       <c r="F24">
-        <v>0.997231111175403</v>
+        <v>1.047759750622913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03934448852947</v>
+        <v>1.032063969814047</v>
       </c>
       <c r="J24">
-        <v>1.010303165079734</v>
+        <v>1.038295354094338</v>
       </c>
       <c r="K24">
-        <v>1.006841144334641</v>
+        <v>1.038367049807321</v>
       </c>
       <c r="L24">
-        <v>1.011206734036044</v>
+        <v>1.04355089359178</v>
       </c>
       <c r="M24">
-        <v>1.011307026714018</v>
+        <v>1.051089281039797</v>
       </c>
       <c r="N24">
-        <v>1.01173791145754</v>
+        <v>1.039769852591294</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9915452860285615</v>
+        <v>1.033917038585475</v>
       </c>
       <c r="D25">
-        <v>1.000873266365749</v>
+        <v>1.036680509587486</v>
       </c>
       <c r="E25">
-        <v>1.005278413879721</v>
+        <v>1.041887783495319</v>
       </c>
       <c r="F25">
-        <v>1.006646594279341</v>
+        <v>1.049740675845434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041267244338331</v>
+        <v>1.032303255311862</v>
       </c>
       <c r="J25">
-        <v>1.016360574014829</v>
+        <v>1.0395212040298</v>
       </c>
       <c r="K25">
-        <v>1.013458041107624</v>
+        <v>1.039730274248482</v>
       </c>
       <c r="L25">
-        <v>1.017795338183756</v>
+        <v>1.044921302715074</v>
       </c>
       <c r="M25">
-        <v>1.019142599268442</v>
+        <v>1.052750028546701</v>
       </c>
       <c r="N25">
-        <v>1.017803922608117</v>
+        <v>1.040997443374271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035383042756525</v>
+        <v>0.9987608207858542</v>
       </c>
       <c r="D2">
-        <v>1.038027399199306</v>
+        <v>1.007150189658495</v>
       </c>
       <c r="E2">
-        <v>1.043239394799286</v>
+        <v>1.011529271131002</v>
       </c>
       <c r="F2">
-        <v>1.051323590264847</v>
+        <v>1.013870172515662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03248832586516</v>
+        <v>1.042692414559835</v>
       </c>
       <c r="J2">
-        <v>1.040497118508461</v>
+        <v>1.020978658767091</v>
       </c>
       <c r="K2">
-        <v>1.040816602684436</v>
+        <v>1.018510801717607</v>
       </c>
       <c r="L2">
-        <v>1.046013820906619</v>
+        <v>1.022830288074118</v>
       </c>
       <c r="M2">
-        <v>1.05407540986662</v>
+        <v>1.0251395974591</v>
       </c>
       <c r="N2">
-        <v>1.041974743763431</v>
+        <v>1.022428565570428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03644764337012</v>
+        <v>1.003831242684659</v>
       </c>
       <c r="D3">
-        <v>1.039006121426829</v>
+        <v>1.011572878045572</v>
       </c>
       <c r="E3">
-        <v>1.04422181502091</v>
+        <v>1.015936063346418</v>
       </c>
       <c r="F3">
-        <v>1.052474633873844</v>
+        <v>1.018964172263148</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032619345340919</v>
+        <v>1.043667779319954</v>
       </c>
       <c r="J3">
-        <v>1.041204663579154</v>
+        <v>1.024218006271962</v>
       </c>
       <c r="K3">
-        <v>1.041604807522457</v>
+        <v>1.02205979259996</v>
       </c>
       <c r="L3">
-        <v>1.046806787332633</v>
+        <v>1.026369020243969</v>
       </c>
       <c r="M3">
-        <v>1.055038206446775</v>
+        <v>1.029360019544536</v>
       </c>
       <c r="N3">
-        <v>1.04268329362928</v>
+        <v>1.025672513320316</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037136584836365</v>
+        <v>1.007039057615768</v>
       </c>
       <c r="D4">
-        <v>1.039639772019352</v>
+        <v>1.014376048544852</v>
       </c>
       <c r="E4">
-        <v>1.044857983438921</v>
+        <v>1.018730308553605</v>
       </c>
       <c r="F4">
-        <v>1.053220228044359</v>
+        <v>1.022194992284202</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032702568322428</v>
+        <v>1.044272433536751</v>
       </c>
       <c r="J4">
-        <v>1.041662004229239</v>
+        <v>1.026264401548668</v>
       </c>
       <c r="K4">
-        <v>1.04211456682116</v>
+        <v>1.024304009182267</v>
       </c>
       <c r="L4">
-        <v>1.047319751683657</v>
+        <v>1.028607811249048</v>
       </c>
       <c r="M4">
-        <v>1.055661410622551</v>
+        <v>1.032032724615413</v>
       </c>
       <c r="N4">
-        <v>1.043141283755546</v>
+        <v>1.027721814713039</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037426233672469</v>
+        <v>1.00837081525692</v>
       </c>
       <c r="D5">
-        <v>1.039906242637744</v>
+        <v>1.01554100237339</v>
       </c>
       <c r="E5">
-        <v>1.045125542503994</v>
+        <v>1.019891830267604</v>
       </c>
       <c r="F5">
-        <v>1.053533865390889</v>
+        <v>1.023538213686553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032737182612707</v>
+        <v>1.044520435126643</v>
       </c>
       <c r="J5">
-        <v>1.041854153111253</v>
+        <v>1.027113225536803</v>
       </c>
       <c r="K5">
-        <v>1.042328806666146</v>
+        <v>1.025235420668705</v>
       </c>
       <c r="L5">
-        <v>1.047535368662868</v>
+        <v>1.029537228780789</v>
       </c>
       <c r="M5">
-        <v>1.055923455913031</v>
+        <v>1.033142924117405</v>
       </c>
       <c r="N5">
-        <v>1.043333705511013</v>
+        <v>1.028571844128599</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037474868038942</v>
+        <v>1.008593456933817</v>
       </c>
       <c r="D6">
-        <v>1.039950989138061</v>
+        <v>1.015735826557745</v>
       </c>
       <c r="E6">
-        <v>1.045170473516724</v>
+        <v>1.020086096797708</v>
       </c>
       <c r="F6">
-        <v>1.053586537595899</v>
+        <v>1.023762883551739</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032742972643478</v>
+        <v>1.044561716391131</v>
       </c>
       <c r="J6">
-        <v>1.041886408879203</v>
+        <v>1.027255085165959</v>
       </c>
       <c r="K6">
-        <v>1.042364774779145</v>
+        <v>1.025391114168372</v>
       </c>
       <c r="L6">
-        <v>1.047571569747551</v>
+        <v>1.029692604222528</v>
       </c>
       <c r="M6">
-        <v>1.055967457413976</v>
+        <v>1.033328560114656</v>
       </c>
       <c r="N6">
-        <v>1.043366007085853</v>
+        <v>1.0287139052147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037140455067918</v>
+        <v>1.007056917785265</v>
       </c>
       <c r="D7">
-        <v>1.039643332283506</v>
+        <v>1.014391667074873</v>
       </c>
       <c r="E7">
-        <v>1.044861558129216</v>
+        <v>1.018745879973063</v>
       </c>
       <c r="F7">
-        <v>1.05322441813716</v>
+        <v>1.022212998669486</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032703032304896</v>
+        <v>1.044275771505436</v>
       </c>
       <c r="J7">
-        <v>1.041664572192519</v>
+        <v>1.026275788157254</v>
       </c>
       <c r="K7">
-        <v>1.042117429752187</v>
+        <v>1.024316501554501</v>
       </c>
       <c r="L7">
-        <v>1.047322632899139</v>
+        <v>1.028620275854647</v>
       </c>
       <c r="M7">
-        <v>1.055664911887229</v>
+        <v>1.032047611156409</v>
       </c>
       <c r="N7">
-        <v>1.043143855365628</v>
+        <v>1.027733217491915</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035742814384576</v>
+        <v>1.000489954490272</v>
       </c>
       <c r="D8">
-        <v>1.03835808990527</v>
+        <v>1.008657321505337</v>
       </c>
       <c r="E8">
-        <v>1.043571309402474</v>
+        <v>1.013030745537302</v>
       </c>
       <c r="F8">
-        <v>1.051712426827406</v>
+        <v>1.015605630878052</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032532926388134</v>
+        <v>1.043027613279528</v>
       </c>
       <c r="J8">
-        <v>1.040736337655211</v>
+        <v>1.022083953750299</v>
       </c>
       <c r="K8">
-        <v>1.041083034282093</v>
+        <v>1.019721287071289</v>
       </c>
       <c r="L8">
-        <v>1.046281836061501</v>
+        <v>1.024037053311024</v>
       </c>
       <c r="M8">
-        <v>1.054400747841787</v>
+        <v>1.026578283084866</v>
       </c>
       <c r="N8">
-        <v>1.042214302628808</v>
+        <v>1.023535430199292</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033280547668975</v>
+        <v>0.9883252600490693</v>
       </c>
       <c r="D9">
-        <v>1.03609603753323</v>
+        <v>0.9980783923178482</v>
       </c>
       <c r="E9">
-        <v>1.041301390920452</v>
+        <v>1.002496366129996</v>
       </c>
       <c r="F9">
-        <v>1.049054172190726</v>
+        <v>1.003432154226894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032221278319526</v>
+        <v>1.04061860362328</v>
       </c>
       <c r="J9">
-        <v>1.039096939226941</v>
+        <v>1.014297128053963</v>
       </c>
       <c r="K9">
-        <v>1.039258302055975</v>
+        <v>1.011202723393053</v>
       </c>
       <c r="L9">
-        <v>1.044446771311925</v>
+        <v>1.01554907096183</v>
       </c>
       <c r="M9">
-        <v>1.05217474547819</v>
+        <v>1.016469791476901</v>
       </c>
       <c r="N9">
-        <v>1.040572576066728</v>
+        <v>1.015737546317306</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031639393141106</v>
+        <v>0.9797669979747456</v>
       </c>
       <c r="D10">
-        <v>1.03458984025308</v>
+        <v>0.9906686925644078</v>
       </c>
       <c r="E10">
-        <v>1.039790590211283</v>
+        <v>0.9951239838454019</v>
       </c>
       <c r="F10">
-        <v>1.047286080647826</v>
+        <v>0.9949147337071808</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032005528532655</v>
+        <v>1.038861345622485</v>
       </c>
       <c r="J10">
-        <v>1.038001509158192</v>
+        <v>1.008807022365787</v>
       </c>
       <c r="K10">
-        <v>1.038040484739569</v>
+        <v>1.005208495625137</v>
       </c>
       <c r="L10">
-        <v>1.04322269989884</v>
+        <v>1.009581837917254</v>
       </c>
       <c r="M10">
-        <v>1.050691834158889</v>
+        <v>1.009376415261683</v>
       </c>
       <c r="N10">
-        <v>1.039475590361634</v>
+        <v>1.01023964404933</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030928835114776</v>
+        <v>0.9759425270673461</v>
       </c>
       <c r="D11">
-        <v>1.033938078659503</v>
+        <v>0.9873661437324884</v>
       </c>
       <c r="E11">
-        <v>1.039136986839061</v>
+        <v>0.9918395079771399</v>
       </c>
       <c r="F11">
-        <v>1.046521443543061</v>
+        <v>0.9911202239272443</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031910215866671</v>
+        <v>1.038062012872655</v>
       </c>
       <c r="J11">
-        <v>1.037526584878365</v>
+        <v>1.006351540053572</v>
       </c>
       <c r="K11">
-        <v>1.037512842969327</v>
+        <v>1.002530314844348</v>
       </c>
       <c r="L11">
-        <v>1.042692499887098</v>
+        <v>1.006916977741112</v>
       </c>
       <c r="M11">
-        <v>1.050049975640871</v>
+        <v>1.0062115654536</v>
       </c>
       <c r="N11">
-        <v>1.038999991634856</v>
+        <v>1.007780674670583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030664912644016</v>
+        <v>0.9745029699759433</v>
       </c>
       <c r="D12">
-        <v>1.033696050362646</v>
+        <v>0.9861244199282553</v>
       </c>
       <c r="E12">
-        <v>1.038894297160611</v>
+        <v>0.9906047950767036</v>
       </c>
       <c r="F12">
-        <v>1.046237567018209</v>
+        <v>0.9896937549453546</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031874528516439</v>
+        <v>1.037759093842086</v>
       </c>
       <c r="J12">
-        <v>1.037350087363614</v>
+        <v>1.005427029583015</v>
       </c>
       <c r="K12">
-        <v>1.037316805473466</v>
+        <v>1.00152237134448</v>
       </c>
       <c r="L12">
-        <v>1.042495534610114</v>
+        <v>1.005914233420734</v>
       </c>
       <c r="M12">
-        <v>1.049811598529798</v>
+        <v>1.005021106323417</v>
       </c>
       <c r="N12">
-        <v>1.038823243473389</v>
+        <v>1.006854851289116</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030721524446586</v>
+        <v>0.9748126381335491</v>
       </c>
       <c r="D13">
-        <v>1.033747963311717</v>
+        <v>0.9863914679239663</v>
       </c>
       <c r="E13">
-        <v>1.038946350949854</v>
+        <v>0.9908703255590902</v>
       </c>
       <c r="F13">
-        <v>1.046298452995311</v>
+        <v>0.9900005250279347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031882196421686</v>
+        <v>1.037824347056775</v>
       </c>
       <c r="J13">
-        <v>1.037387950728919</v>
+        <v>1.005625914484516</v>
       </c>
       <c r="K13">
-        <v>1.03735885834623</v>
+        <v>1.001739186024964</v>
       </c>
       <c r="L13">
-        <v>1.042537785479278</v>
+        <v>1.006129921381417</v>
       </c>
       <c r="M13">
-        <v>1.04986272952425</v>
+        <v>1.005277152447817</v>
       </c>
       <c r="N13">
-        <v>1.038861160609015</v>
+        <v>1.007054018629989</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030907018991412</v>
+        <v>0.9758239269515823</v>
       </c>
       <c r="D14">
-        <v>1.0339180711988</v>
+        <v>0.9872638139524232</v>
       </c>
       <c r="E14">
-        <v>1.039116924244692</v>
+        <v>0.9917377515830603</v>
       </c>
       <c r="F14">
-        <v>1.046497975289933</v>
+        <v>0.9910026650055985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031907271731124</v>
+        <v>1.038037097562895</v>
       </c>
       <c r="J14">
-        <v>1.037511997364183</v>
+        <v>1.006275377538855</v>
       </c>
       <c r="K14">
-        <v>1.03749663942457</v>
+        <v>1.002447270577086</v>
       </c>
       <c r="L14">
-        <v>1.042676219193674</v>
+        <v>1.006834358075114</v>
       </c>
       <c r="M14">
-        <v>1.050030270545689</v>
+        <v>1.006113470793444</v>
       </c>
       <c r="N14">
-        <v>1.038985383404729</v>
+        <v>1.007704403996359</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031021309667921</v>
+        <v>0.9764444646379929</v>
       </c>
       <c r="D15">
-        <v>1.034022888895907</v>
+        <v>0.9877992788553265</v>
       </c>
       <c r="E15">
-        <v>1.039222031706869</v>
+        <v>0.9922702248920054</v>
       </c>
       <c r="F15">
-        <v>1.046620926601363</v>
+        <v>0.9916178290377166</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031922683832635</v>
+        <v>1.03816737617978</v>
       </c>
       <c r="J15">
-        <v>1.037588414732538</v>
+        <v>1.006673864072622</v>
       </c>
       <c r="K15">
-        <v>1.037581524555374</v>
+        <v>1.002881779713358</v>
       </c>
       <c r="L15">
-        <v>1.04276150941039</v>
+        <v>1.007266653141645</v>
       </c>
       <c r="M15">
-        <v>1.050133503093442</v>
+        <v>1.006626753603281</v>
       </c>
       <c r="N15">
-        <v>1.039061909294514</v>
+        <v>1.008103456426712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031686552025853</v>
+        <v>0.9800182191583815</v>
       </c>
       <c r="D16">
-        <v>1.034633104629811</v>
+        <v>0.9908858163636387</v>
       </c>
       <c r="E16">
-        <v>1.039833980010957</v>
+        <v>0.995339949381924</v>
       </c>
       <c r="F16">
-        <v>1.047336847263784</v>
+        <v>0.9951642346570034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032011814284548</v>
+        <v>1.038913565198227</v>
       </c>
       <c r="J16">
-        <v>1.038033015767233</v>
+        <v>1.008968279465063</v>
       </c>
       <c r="K16">
-        <v>1.038075495873081</v>
+        <v>1.005384435362061</v>
       </c>
       <c r="L16">
-        <v>1.043257883967121</v>
+        <v>1.009756928500682</v>
       </c>
       <c r="M16">
-        <v>1.05073443749121</v>
+        <v>1.009584416432747</v>
       </c>
       <c r="N16">
-        <v>1.039507141713674</v>
+        <v>1.010401130152183</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032103860091134</v>
+        <v>0.9822273846153056</v>
       </c>
       <c r="D17">
-        <v>1.035015992512892</v>
+        <v>0.9927961320090284</v>
       </c>
       <c r="E17">
-        <v>1.040217995239114</v>
+        <v>0.9972402380715153</v>
       </c>
       <c r="F17">
-        <v>1.047786181764753</v>
+        <v>0.99735960909166</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032067217177574</v>
+        <v>1.039371179535539</v>
       </c>
       <c r="J17">
-        <v>1.038311742747528</v>
+        <v>1.010386096799575</v>
       </c>
       <c r="K17">
-        <v>1.038385265705957</v>
+        <v>1.006931661227701</v>
       </c>
       <c r="L17">
-        <v>1.043569201368033</v>
+        <v>1.011296829562123</v>
       </c>
       <c r="M17">
-        <v>1.0511114551107</v>
+        <v>1.011414092853834</v>
       </c>
       <c r="N17">
-        <v>1.039786264518251</v>
+        <v>1.011820960949935</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032347275875067</v>
+        <v>0.9835045842035909</v>
       </c>
       <c r="D18">
-        <v>1.035239366189139</v>
+        <v>0.9939013700408299</v>
       </c>
       <c r="E18">
-        <v>1.040442041099713</v>
+        <v>0.9983398115080092</v>
       </c>
       <c r="F18">
-        <v>1.048048363444043</v>
+        <v>0.9986299407574383</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032099350223401</v>
+        <v>1.039634407505916</v>
       </c>
       <c r="J18">
-        <v>1.03847426198865</v>
+        <v>1.011205586443063</v>
       </c>
       <c r="K18">
-        <v>1.038565918442053</v>
+        <v>1.007826210745326</v>
       </c>
       <c r="L18">
-        <v>1.043750771233226</v>
+        <v>1.012187263634064</v>
       </c>
       <c r="M18">
-        <v>1.051331387419163</v>
+        <v>1.01247236518898</v>
       </c>
       <c r="N18">
-        <v>1.039949014555337</v>
+        <v>1.012641614362714</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032430275578162</v>
+        <v>0.9839381811358797</v>
       </c>
       <c r="D19">
-        <v>1.035315537901779</v>
+        <v>0.994276723622602</v>
       </c>
       <c r="E19">
-        <v>1.040518444491074</v>
+        <v>0.9987132645173988</v>
       </c>
       <c r="F19">
-        <v>1.048137776311946</v>
+        <v>0.9990613921016799</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032110275796042</v>
+        <v>1.039723542339312</v>
       </c>
       <c r="J19">
-        <v>1.03852966709778</v>
+        <v>1.011483759051661</v>
       </c>
       <c r="K19">
-        <v>1.038627511136443</v>
+        <v>1.008129906729443</v>
       </c>
       <c r="L19">
-        <v>1.043812679098804</v>
+        <v>1.012489582807971</v>
       </c>
       <c r="M19">
-        <v>1.051406382779766</v>
+        <v>1.012831716292548</v>
       </c>
       <c r="N19">
-        <v>1.040004498346077</v>
+        <v>1.012920182008324</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032059086159413</v>
+        <v>0.9819915460309794</v>
       </c>
       <c r="D20">
-        <v>1.034974907957479</v>
+        <v>0.9925921119506299</v>
       </c>
       <c r="E20">
-        <v>1.040176788217929</v>
+        <v>0.9970372747122138</v>
       </c>
       <c r="F20">
-        <v>1.047737962862395</v>
+        <v>0.9971251277065024</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032061291849301</v>
+        <v>1.03932246525508</v>
       </c>
       <c r="J20">
-        <v>1.038281843926644</v>
+        <v>1.010234758849607</v>
       </c>
       <c r="K20">
-        <v>1.038352033516365</v>
+        <v>1.006766482960798</v>
       </c>
       <c r="L20">
-        <v>1.043535801643821</v>
+        <v>1.011132420896633</v>
       </c>
       <c r="M20">
-        <v>1.051071002174466</v>
+        <v>1.0112187173469</v>
       </c>
       <c r="N20">
-        <v>1.039756323237612</v>
+        <v>1.01166940808272</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030852395187768</v>
+        <v>0.9755266611861001</v>
       </c>
       <c r="D21">
-        <v>1.033867976871269</v>
+        <v>0.9870073515042842</v>
       </c>
       <c r="E21">
-        <v>1.03906669223876</v>
+        <v>0.9914827296460076</v>
       </c>
       <c r="F21">
-        <v>1.046439216980905</v>
+        <v>0.9907080382805069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031899895515122</v>
+        <v>1.037974615789279</v>
       </c>
       <c r="J21">
-        <v>1.037475471192069</v>
+        <v>1.00608447587813</v>
       </c>
       <c r="K21">
-        <v>1.037456067651554</v>
+        <v>1.002239126449576</v>
       </c>
       <c r="L21">
-        <v>1.042635454615863</v>
+        <v>1.006627281160926</v>
       </c>
       <c r="M21">
-        <v>1.049980932850387</v>
+        <v>1.005867614304522</v>
       </c>
       <c r="N21">
-        <v>1.038948805361262</v>
+        <v>1.007513231233379</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030093760705561</v>
+        <v>0.9713514891311932</v>
       </c>
       <c r="D22">
-        <v>1.033172381364427</v>
+        <v>0.9834086621677735</v>
       </c>
       <c r="E22">
-        <v>1.038369238372976</v>
+        <v>0.9879047666858536</v>
       </c>
       <c r="F22">
-        <v>1.045623475434673</v>
+        <v>0.9865743182455829</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031796776302293</v>
+        <v>1.037092257727129</v>
       </c>
       <c r="J22">
-        <v>1.036967954893066</v>
+        <v>1.003402703915172</v>
       </c>
       <c r="K22">
-        <v>1.036892461536976</v>
+        <v>0.9993161209194958</v>
       </c>
       <c r="L22">
-        <v>1.04206922383575</v>
+        <v>1.003719701732032</v>
       </c>
       <c r="M22">
-        <v>1.049295781187078</v>
+        <v>1.002416516208951</v>
       </c>
       <c r="N22">
-        <v>1.038440568330901</v>
+        <v>1.00482765084663</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030495921677437</v>
+        <v>0.9735757040380402</v>
       </c>
       <c r="D23">
-        <v>1.033541094026458</v>
+        <v>0.9853249834170141</v>
       </c>
       <c r="E23">
-        <v>1.038738923728054</v>
+        <v>0.9898099329548444</v>
       </c>
       <c r="F23">
-        <v>1.046055836714901</v>
+        <v>0.9887754364550773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031851597410051</v>
+        <v>1.037563406250239</v>
       </c>
       <c r="J23">
-        <v>1.037237047954488</v>
+        <v>1.004831459966041</v>
       </c>
       <c r="K23">
-        <v>1.037191266023562</v>
+        <v>1.000873170894051</v>
       </c>
       <c r="L23">
-        <v>1.042369407404975</v>
+        <v>1.005268433659914</v>
       </c>
       <c r="M23">
-        <v>1.049658972405424</v>
+        <v>1.004254529352309</v>
       </c>
       <c r="N23">
-        <v>1.038710043535336</v>
+        <v>1.006258435894972</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032079317549858</v>
+        <v>0.9820981463856974</v>
       </c>
       <c r="D24">
-        <v>1.034993472170786</v>
+        <v>0.9926843276336811</v>
       </c>
       <c r="E24">
-        <v>1.040195407723063</v>
+        <v>0.9971290123507062</v>
       </c>
       <c r="F24">
-        <v>1.047759750622913</v>
+        <v>0.9972311111754032</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032063969814047</v>
+        <v>1.03934448852947</v>
       </c>
       <c r="J24">
-        <v>1.038295354094338</v>
+        <v>1.010303165079734</v>
       </c>
       <c r="K24">
-        <v>1.038367049807321</v>
+        <v>1.006841144334641</v>
       </c>
       <c r="L24">
-        <v>1.04355089359178</v>
+        <v>1.011206734036044</v>
       </c>
       <c r="M24">
-        <v>1.051089281039797</v>
+        <v>1.011307026714018</v>
       </c>
       <c r="N24">
-        <v>1.039769852591294</v>
+        <v>1.01173791145754</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033917038585475</v>
+        <v>0.9915452860285617</v>
       </c>
       <c r="D25">
-        <v>1.036680509587486</v>
+        <v>1.00087326636575</v>
       </c>
       <c r="E25">
-        <v>1.041887783495319</v>
+        <v>1.005278413879722</v>
       </c>
       <c r="F25">
-        <v>1.049740675845434</v>
+        <v>1.006646594279341</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032303255311862</v>
+        <v>1.041267244338332</v>
       </c>
       <c r="J25">
-        <v>1.0395212040298</v>
+        <v>1.016360574014829</v>
       </c>
       <c r="K25">
-        <v>1.039730274248482</v>
+        <v>1.013458041107625</v>
       </c>
       <c r="L25">
-        <v>1.044921302715074</v>
+        <v>1.017795338183757</v>
       </c>
       <c r="M25">
-        <v>1.052750028546701</v>
+        <v>1.019142599268442</v>
       </c>
       <c r="N25">
-        <v>1.040997443374271</v>
+        <v>1.017803922608117</v>
       </c>
     </row>
   </sheetData>
